--- a/tests/integration/data/Renderer011-DumpCols/template.xlsx
+++ b/tests/integration/data/Renderer011-DumpCols/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siemi\aProjects\xlsx-renderer-2\tests\integration\data\Renderer011-DumpColls+MergedCells\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petricahorlescu/Documents/GIT/MillTechFX.xlsx-renderer/tests/integration/data/Renderer011-DumpCols/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87681E2F-FEFD-446A-9D4C-AF33550014BF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17FBCE7-4E8F-DF43-9773-CBBA1B19B37A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24580" windowHeight="14620" xr2:uid="{D8E9061E-44F4-4BE6-95D9-C0285EA24787}"/>
+    <workbookView xWindow="4220" yWindow="500" windowWidth="24580" windowHeight="14620" xr2:uid="{D8E9061E-44F4-4BE6-95D9-C0285EA24787}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>Websites statistics:</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>#! FINISH</t>
+  </si>
+  <si>
+    <t>#! END_ROW true</t>
   </si>
 </sst>
 </file>
@@ -156,7 +159,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -165,13 +168,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -491,19 +494,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26416FC6-06C5-4FD7-BEC6-E2C13CE7DC2F}">
-  <dimension ref="B1:D9"/>
+  <dimension ref="B1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="76.36328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.1796875" customWidth="1"/>
+    <col min="2" max="2" width="76.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="115" customHeight="1" x14ac:dyDescent="1.35">
+    <row r="1" spans="2:5" ht="115" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -511,7 +514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
@@ -521,8 +524,11 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="9"/>
       <c r="C3" s="9" t="s">
         <v>5</v>
@@ -531,7 +537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
@@ -542,7 +548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
         <v>8</v>
@@ -550,8 +556,11 @@
       <c r="D5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
         <v>5</v>
@@ -560,7 +569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
@@ -571,7 +580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="7"/>
       <c r="C8" s="7" t="s">
         <v>8</v>
@@ -579,8 +588,11 @@
       <c r="D8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
         <v>11</v>
       </c>
